--- a/files-example/Artefacto Lean Digital Ambulancias AS-IS.xlsx
+++ b/files-example/Artefacto Lean Digital Ambulancias AS-IS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b2ea08cfefb535b/Documents/AI_MASTER/Proyecto_III_de_innovación_tecnologica_en_IA/proyecto_final_mia/files-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b2ea08cfefb535b/Documents/AI_MASTER/Proyecto_III_de_innovación_tecnologica_en_IA/rac-assistant - copia/files-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_80702AC9413F0F127BE07DF7D72A10E56E822426" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E77104-9827-48A7-8D6A-9A24196138F5}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_80702AC9413F0F127BE07DF7D72A10E56E822426" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C106CB-4312-4C30-BEAF-8F26247F8904}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1212" windowWidth="21624" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K12" si="1">IFERROR(ROUND(J3*(1+0.07),2),"")</f>
+        <f t="shared" ref="K3:K11" si="1">IFERROR(ROUND(J3*(1+0.07),2),"")</f>
         <v>6.42</v>
       </c>
       <c r="L3" s="3"/>
@@ -1003,10 +1003,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1103,10 +1100,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
